--- a/data/trans_orig/P73-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P73-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E19BC1B-AE99-49CB-988D-36AEFF5FAE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A52EF3-340E-4871-95F4-C06729E97048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E614CD29-2E95-4F78-A122-73CA0A4A1C65}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A989C6F-E1F4-44CE-A7A8-7ED6B858F1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="270">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -95,579 +95,597 @@
     <t>71,78%</t>
   </si>
   <si>
-    <t>68,82%</t>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>74,43%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>25,57%</t>
   </si>
   <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
   </si>
   <si>
     <t>59,96%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
   </si>
   <si>
     <t>40,04%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
@@ -680,79 +698,73 @@
     <t>63,34%</t>
   </si>
   <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
   </si>
   <si>
     <t>36,66%</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>63,62%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>60,92%</t>
+    <t>60,77%</t>
   </si>
   <si>
     <t>63,18%</t>
@@ -761,19 +773,19 @@
     <t>36,38%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>39,51%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>37,98%</t>
@@ -782,7 +794,7 @@
     <t>36,82%</t>
   </si>
   <si>
-    <t>39,08%</t>
+    <t>39,23%</t>
   </si>
   <si>
     <t>Población según si están casados o viven en pareja en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1248,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066FF9C-6B6C-473B-A294-506D45C82A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5FB171-A4F9-4521-81B0-9651493B71E7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2038,7 +2050,7 @@
         <v>2096</v>
       </c>
       <c r="D17" s="7">
-        <v>2142457</v>
+        <v>2142458</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>81</v>
@@ -2071,13 +2083,13 @@
         <v>4256715</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2104,13 @@
         <v>1133174</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>1244</v>
@@ -2107,13 +2119,13 @@
         <v>1264940</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>2361</v>
@@ -2122,13 +2134,13 @@
         <v>2398114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,7 +2152,7 @@
         <v>3213</v>
       </c>
       <c r="D19" s="7">
-        <v>3275631</v>
+        <v>3275632</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2184,7 +2196,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD663BAA-F64E-42DC-B895-2CCA019602EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CBC95D-9AB5-4A3C-9D71-A5251259420D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2220,7 +2232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2333,7 +2345,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2363,7 +2375,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2390,13 @@
         <v>693397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>801</v>
@@ -2393,28 +2405,28 @@
         <v>858093</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>1447</v>
       </c>
       <c r="N5" s="7">
-        <v>1551490</v>
+        <v>1551489</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2441,13 @@
         <v>278260</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>439</v>
@@ -2444,13 +2456,13 @@
         <v>472745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>698</v>
@@ -2459,13 +2471,13 @@
         <v>751005</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2519,7 @@
         <v>2145</v>
       </c>
       <c r="N7" s="7">
-        <v>2302495</v>
+        <v>2302494</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2539,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2587,25 +2599,25 @@
         <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7">
         <v>1051</v>
       </c>
       <c r="I9" s="7">
-        <v>1142203</v>
+        <v>1142202</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M9" s="7">
         <v>2191</v>
@@ -2614,13 +2626,13 @@
         <v>2360276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,10 +2650,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>577</v>
@@ -2650,13 +2662,13 @@
         <v>607064</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>1285</v>
@@ -2665,13 +2677,13 @@
         <v>1344966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,7 +2710,7 @@
         <v>1628</v>
       </c>
       <c r="I11" s="7">
-        <v>1749267</v>
+        <v>1749266</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2745,7 +2757,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2760,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2775,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2802,13 @@
         <v>304948</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -2805,13 +2817,13 @@
         <v>297314</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>532</v>
@@ -2820,13 +2832,13 @@
         <v>602262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2853,13 @@
         <v>175384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>147</v>
@@ -2856,13 +2868,13 @@
         <v>159320</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>315</v>
@@ -2871,13 +2883,13 @@
         <v>334704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +3008,13 @@
         <v>2216417</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>2115</v>
@@ -3011,13 +3023,13 @@
         <v>2297610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>4170</v>
@@ -3026,13 +3038,13 @@
         <v>4514027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3059,13 @@
         <v>1191547</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>1163</v>
@@ -3062,13 +3074,13 @@
         <v>1239128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M18" s="7">
         <v>2298</v>
@@ -3077,13 +3089,13 @@
         <v>2430675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,7 +3151,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3158,7 +3170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C05AFE3-E258-4343-865F-CC8A40723BE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47505D3-6FD8-4EC7-A72E-C99BCFB43D77}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3175,7 +3187,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3288,7 +3300,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3303,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3333,13 +3345,13 @@
         <v>506200</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>554</v>
@@ -3348,13 +3360,13 @@
         <v>601065</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>1064</v>
@@ -3363,13 +3375,13 @@
         <v>1107265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3396,13 @@
         <v>248147</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H6" s="7">
         <v>338</v>
@@ -3399,13 +3411,13 @@
         <v>393595</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M6" s="7">
         <v>590</v>
@@ -3414,13 +3426,13 @@
         <v>641742</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,7 +3506,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3509,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3524,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3551,13 @@
         <v>1294107</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>1155</v>
@@ -3554,13 +3566,13 @@
         <v>1206995</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>2366</v>
@@ -3569,13 +3581,13 @@
         <v>2501102</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3602,13 @@
         <v>779154</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>752</v>
@@ -3605,13 +3617,13 @@
         <v>780381</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>1490</v>
@@ -3620,13 +3632,13 @@
         <v>1559535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3712,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3715,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3730,7 +3742,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3757,13 @@
         <v>346386</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>311</v>
@@ -3760,13 +3772,13 @@
         <v>327462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>626</v>
@@ -3775,13 +3787,13 @@
         <v>673849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3808,13 @@
         <v>200500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>214</v>
@@ -3811,13 +3823,13 @@
         <v>220772</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>400</v>
@@ -3826,13 +3838,13 @@
         <v>421272</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,28 +3963,28 @@
         <v>2146693</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>2020</v>
       </c>
       <c r="I17" s="7">
-        <v>2135523</v>
+        <v>2135522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>4056</v>
@@ -3981,13 +3993,13 @@
         <v>4282216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4014,13 @@
         <v>1227801</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H18" s="7">
         <v>1304</v>
@@ -4017,13 +4029,13 @@
         <v>1394748</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>2480</v>
@@ -4032,13 +4044,13 @@
         <v>2622549</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,7 +4077,7 @@
         <v>3324</v>
       </c>
       <c r="I19" s="7">
-        <v>3530271</v>
+        <v>3530270</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4094,7 +4106,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4113,7 +4125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1286455D-7C3E-4346-9B2B-10EC668E8F5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF08CB4-7A5E-40DF-AF4B-0504AFC6DE72}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4130,7 +4142,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4237,10 +4249,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4252,10 +4264,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4267,10 +4279,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4294,7 +4306,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4309,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4324,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4360,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4375,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,10 +4455,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -4455,13 +4467,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -4473,10 +4485,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -4500,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4515,7 +4527,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4530,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4563,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4566,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4581,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,7 +4620,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4649,10 +4661,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4664,10 +4676,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4679,10 +4691,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4706,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4721,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4736,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4772,7 +4784,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4787,7 +4799,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4864,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4870,10 +4882,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4882,13 +4894,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4927,7 +4939,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4942,7 +4954,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,7 +4990,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4993,7 +5005,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +5017,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5035,7 +5047,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5049,7 +5061,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P73-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P73-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A52EF3-340E-4871-95F4-C06729E97048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{174CAB94-7238-487C-8055-368D7725EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A989C6F-E1F4-44CE-A7A8-7ED6B858F1A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD17CD37-E632-401E-A228-E3E8ABDF8DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="268">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>71,78%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>62,49%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
   </si>
   <si>
     <t>66,57%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>28,22%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>37,51%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>61,35%</t>
   </si>
   <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>62,27%</t>
   </si>
   <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
   </si>
   <si>
     <t>36,75%</t>
   </si>
   <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>37,73%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,571 +230,565 @@
     <t>65,91%</t>
   </si>
   <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2016 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
     <t>61,53%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>38,47%</t>
   </si>
   <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>63,62%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
   </si>
   <si>
     <t>36,38%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>39,51%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
   </si>
   <si>
     <t>Población según si están casados o viven en pareja en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1260,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5FB171-A4F9-4521-81B0-9651493B71E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24F8969-6DC2-475E-AC33-EFCDD9D8583C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2050,7 +2044,7 @@
         <v>2096</v>
       </c>
       <c r="D17" s="7">
-        <v>2142458</v>
+        <v>2142457</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>81</v>
@@ -2152,7 +2146,7 @@
         <v>3213</v>
       </c>
       <c r="D19" s="7">
-        <v>3275632</v>
+        <v>3275631</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2215,7 +2209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CBC95D-9AB5-4A3C-9D71-A5251259420D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED86A37-3585-4846-B46C-11BEA72D3A07}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2417,16 +2411,16 @@
         <v>1447</v>
       </c>
       <c r="N5" s="7">
-        <v>1551489</v>
+        <v>1551490</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,28 +2435,28 @@
         <v>278260</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>439</v>
       </c>
       <c r="I6" s="7">
-        <v>472745</v>
+        <v>472744</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>698</v>
@@ -2471,13 +2465,13 @@
         <v>751005</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,7 +2498,7 @@
         <v>1240</v>
       </c>
       <c r="I7" s="7">
-        <v>1330838</v>
+        <v>1330837</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2519,7 +2513,7 @@
         <v>2145</v>
       </c>
       <c r="N7" s="7">
-        <v>2302494</v>
+        <v>2302495</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2551,7 +2545,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2599,25 +2593,25 @@
         <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H9" s="7">
         <v>1051</v>
       </c>
       <c r="I9" s="7">
-        <v>1142202</v>
+        <v>1142203</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M9" s="7">
         <v>2191</v>
@@ -2626,13 +2620,13 @@
         <v>2360276</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,10 +2644,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>577</v>
@@ -2662,13 +2656,13 @@
         <v>607064</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>1285</v>
@@ -2677,13 +2671,13 @@
         <v>1344966</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2704,7 @@
         <v>1628</v>
       </c>
       <c r="I11" s="7">
-        <v>1749266</v>
+        <v>1749267</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2757,37 +2751,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2796,13 @@
         <v>304948</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -2817,13 +2811,13 @@
         <v>297314</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>532</v>
@@ -2832,13 +2826,13 @@
         <v>602262</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2847,13 @@
         <v>175384</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>147</v>
@@ -2868,13 +2862,13 @@
         <v>159320</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>315</v>
@@ -2883,13 +2877,13 @@
         <v>334704</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3002,13 @@
         <v>2216417</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>2115</v>
@@ -3023,13 +3017,13 @@
         <v>2297610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>4170</v>
@@ -3038,13 +3032,13 @@
         <v>4514027</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3053,13 @@
         <v>1191547</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>1163</v>
@@ -3074,13 +3068,13 @@
         <v>1239128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M18" s="7">
         <v>2298</v>
@@ -3089,13 +3083,13 @@
         <v>2430675</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47505D3-6FD8-4EC7-A72E-C99BCFB43D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A42D35-9415-4A76-9181-A267BF2F1348}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,7 +3181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3300,7 +3294,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3315,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3345,13 +3339,13 @@
         <v>506200</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>554</v>
@@ -3360,13 +3354,13 @@
         <v>601065</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>1064</v>
@@ -3375,13 +3369,13 @@
         <v>1107265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3390,13 @@
         <v>248147</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>338</v>
@@ -3411,13 +3405,13 @@
         <v>393595</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>590</v>
@@ -3426,13 +3420,13 @@
         <v>641742</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3521,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3536,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3545,13 @@
         <v>1294107</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H9" s="7">
         <v>1155</v>
@@ -3566,13 +3560,13 @@
         <v>1206995</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>2366</v>
@@ -3581,13 +3575,13 @@
         <v>2501102</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3596,13 @@
         <v>779154</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>752</v>
@@ -3617,13 +3611,13 @@
         <v>780381</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>1490</v>
@@ -3632,13 +3626,13 @@
         <v>1559535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3727,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3742,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3751,13 @@
         <v>346386</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>311</v>
@@ -3772,13 +3766,13 @@
         <v>327462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>626</v>
@@ -3787,13 +3781,13 @@
         <v>673849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3802,13 @@
         <v>200500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>214</v>
@@ -3823,13 +3817,13 @@
         <v>220772</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>400</v>
@@ -3838,13 +3832,13 @@
         <v>421272</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3957,13 @@
         <v>2146693</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>2020</v>
@@ -3978,13 +3972,13 @@
         <v>2135522</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>4056</v>
@@ -3993,13 +3987,13 @@
         <v>4282216</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4008,13 @@
         <v>1227801</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H18" s="7">
         <v>1304</v>
@@ -4029,13 +4023,13 @@
         <v>1394748</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>2480</v>
@@ -4044,13 +4038,13 @@
         <v>2622549</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF08CB4-7A5E-40DF-AF4B-0504AFC6DE72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6650352-0575-4221-85EF-A37B2C0AA49F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4142,7 +4136,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4249,10 +4243,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4264,10 +4258,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4279,10 +4273,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4306,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4321,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4357,7 +4351,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4372,7 +4366,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4455,10 +4449,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -4470,10 +4464,10 @@
         <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -4485,10 +4479,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -4512,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4527,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4542,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4578,7 +4572,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4593,7 +4587,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,10 +4655,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4676,10 +4670,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4691,10 +4685,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4718,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4733,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4748,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,7 +4763,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4784,7 +4778,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4799,7 +4793,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,10 +4861,10 @@
         <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4882,10 +4876,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4897,10 +4891,10 @@
         <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4939,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4954,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,7 +4984,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5005,7 +4999,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P73-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P73-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{619ABDB3-8604-4D56-9905-888873481266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A763E0E4-9813-4E8B-AC1A-1E2F5DDE1CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{134B6160-2161-45C6-948F-B2C47639CFF9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{72A8DBB6-EBCE-45C5-BBB8-CBEFA3C1AE51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217AC952-5220-4ED4-9FB5-B70BD0D3547B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49DDEDE-717F-4825-92F0-673D05F7B96B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1272,7 +1272,7 @@
         <v>1565</v>
       </c>
       <c r="N4" s="7">
-        <v>1562388</v>
+        <v>1562387</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1374,7 +1374,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1448,7 +1448,7 @@
         <v>648</v>
       </c>
       <c r="D8" s="7">
-        <v>654074</v>
+        <v>654075</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1499,7 +1499,7 @@
         <v>1648</v>
       </c>
       <c r="D9" s="7">
-        <v>1692500</v>
+        <v>1692501</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1722,7 @@
         <v>2053</v>
       </c>
       <c r="I13" s="7">
-        <v>2114258</v>
+        <v>2114257</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1824,7 +1824,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1872,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE37E946-7307-4CFA-9BC3-F94AC6685F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8A1999-AD49-474C-841B-82D50E65C009}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2059,7 +2059,7 @@
         <v>439</v>
       </c>
       <c r="I5" s="7">
-        <v>472745</v>
+        <v>472744</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>97</v>
@@ -2110,7 +2110,7 @@
         <v>1240</v>
       </c>
       <c r="I6" s="7">
-        <v>1330838</v>
+        <v>1330837</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2623,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BA308F-BAF8-430D-A204-ED608AB898F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008A1BE2-8009-491F-8D06-EBC575E0C162}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
